--- a/FB 코딩리스트(로컬링크).xlsx
+++ b/FB 코딩리스트(로컬링크).xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\FALCON\퍼블리싱fb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tomcat8\webapps\ROOT\퍼블리싱FB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F242E14-1B08-4865-93E9-B7CD9D948078}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664B55BA-96C0-4344-8CB2-B88189779D7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{150270CB-C758-48CF-A2C6-9D8C3898AD73}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{150270CB-C758-48CF-A2C6-9D8C3898AD73}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
   <si>
     <t>로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,6 +202,10 @@
   </si>
   <si>
     <t>정산 신청 금액(A) 내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이아웃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -283,7 +285,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -313,6 +315,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -641,33 +646,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D0DCBC1-8E54-4F6F-8880-6AFD05012F62}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="86" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="8.69921875" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.796875" customWidth="1"/>
+    <col min="2" max="2" width="8.75" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="25.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
       <c r="F2" s="3" t="s">
         <v>23</v>
       </c>
@@ -678,30 +683,30 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="4">
+    <row r="3" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="10">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="6" t="str">
-        <f>HYPERLINK("1.로그인.html", "1.로그인.html")</f>
-        <v>1.로그인.html</v>
+        <f>HYPERLINK("1.layout.html", "1.layout.html")</f>
+        <v>1.layout.html</v>
       </c>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -709,598 +714,604 @@
         <v>24</v>
       </c>
       <c r="G4" s="6" t="str">
-        <f>HYPERLINK("2.대시보드.html", "2.대시보드.html")</f>
-        <v>2.대시보드.html</v>
+        <f>HYPERLINK("2.로그인.html", "2.로그인.html")</f>
+        <v>2.로그인.html</v>
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4">
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="6" t="str">
-        <f>HYPERLINK("3.F&amp;B 환경설정.html", "3.F&amp;B 환경설정.html")</f>
-        <v>3.F&amp;B 환경설정.html</v>
+        <f>HYPERLINK("3.대시보드.html", "3.대시보드.html")</f>
+        <v>3.대시보드.html</v>
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="D6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>3</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E6" s="5"/>
       <c r="F6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G6" s="6" t="str">
-        <f>HYPERLINK("4.사용자 리스트.html", "4.사용자 리스트.html")</f>
-        <v>4.사용자 리스트.html</v>
+        <f>HYPERLINK("4.F&amp;B 환경설정.html", "4.F&amp;B 환경설정.html")</f>
+        <v>4.F&amp;B 환경설정.html</v>
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="4">
         <v>5</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="E7" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G7" s="6" t="str">
-        <f>HYPERLINK("5.사용자 등록.html", "5.사용자 등록.html")</f>
-        <v>5.사용자 등록.html</v>
+        <f>HYPERLINK("5.사용자 리스트.html", "5.사용자 리스트.html")</f>
+        <v>5.사용자 리스트.html</v>
       </c>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="4">
         <v>6</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="6" t="str">
-        <f>HYPERLINK("6.사용자 상세정보.html", "6.사용자 상세정보.html")</f>
-        <v>6.사용자 상세정보.html</v>
+        <f>HYPERLINK("6.사용자 등록.html", "6.사용자 등록.html")</f>
+        <v>6.사용자 등록.html</v>
       </c>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="4">
         <v>7</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="F9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="6" t="str">
-        <f>HYPERLINK("7.영업시간 관리.html", "7.영업시간 관리.html")</f>
-        <v>7.영업시간 관리.html</v>
+        <f>HYPERLINK("7.사용자 상세정보.html", "7.사용자 상세정보.html")</f>
+        <v>7.사용자 상세정보.html</v>
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4">
         <v>8</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="6" t="str">
-        <f>HYPERLINK("8.로그인 로그.html", "8.로그인 로그.html")</f>
-        <v>8.로그인 로그.html</v>
+        <f>HYPERLINK("8.영업시간 관리.html", "8.영업시간 관리.html")</f>
+        <v>8.영업시간 관리.html</v>
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="4">
         <v>9</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="G11" s="6" t="str">
-        <f>HYPERLINK("9.카테고리 리스트.html", "9.카테고리 리스트.html")</f>
-        <v>9.카테고리 리스트.html</v>
+        <f>HYPERLINK("9.로그인 로그.html", "9.로그인 로그.html")</f>
+        <v>9.로그인 로그.html</v>
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="4">
         <v>10</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="D12" s="5" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="6" t="str">
-        <f>HYPERLINK("10.상품 리스트.html", "10.상품 리스트.html")</f>
-        <v>10.상품 리스트.html</v>
+        <f>HYPERLINK("10.카테고리 리스트.html", "10.카테고리 리스트.html")</f>
+        <v>10.카테고리 리스트.html</v>
       </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="4">
         <v>11</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="E13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>24</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F13" s="4"/>
       <c r="G13" s="6" t="str">
-        <f>HYPERLINK("11.상품 등록.html", "11.상품 등록.html")</f>
-        <v>11.상품 등록.html</v>
+        <f>HYPERLINK("11.상품 리스트.html", "11.상품 리스트.html")</f>
+        <v>11.상품 리스트.html</v>
       </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="4">
         <v>12</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G14" s="6" t="str">
-        <f>HYPERLINK("12.상품 상세 정보.html", "12.상품 상세 정보.html")</f>
-        <v>12.상품 상세 정보.html</v>
+        <f>HYPERLINK("12.상품 등록.html", "12.상품 등록.html")</f>
+        <v>12.상품 등록.html</v>
       </c>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="4">
         <v>13</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="G15" s="6" t="str">
-        <f>HYPERLINK("13.실시간 주문 관리.html", "13.실시간 주문 관리.html")</f>
-        <v>13.실시간 주문 관리.html</v>
+        <f>HYPERLINK("13.상품 상세 정보.html", "13.상품 상세 정보.html")</f>
+        <v>13.상품 상세 정보.html</v>
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="4">
         <v>14</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>24</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="6" t="str">
-        <f>HYPERLINK("\\FALCON\퍼블리싱fb/14.공지사항 리스트.html","14.공지사항 리스트.html")</f>
-        <v>14.공지사항 리스트.html</v>
+        <f>HYPERLINK("14.실시간 주문 관리.html", "14.실시간 주문 관리.html")</f>
+        <v>14.실시간 주문 관리.html</v>
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="4">
         <v>15</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="E17" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="6" t="str">
-        <f>HYPERLINK("\\FALCON\퍼블리싱fb/15.공지사항 상세정보.html","15.공지사항 상세정보.html")</f>
-        <v>15.공지사항 상세정보.html</v>
+        <f>HYPERLINK("15.공지사항 리스트.html","15.공지사항 리스트.html")</f>
+        <v>15.공지사항 리스트.html</v>
       </c>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="4">
         <v>16</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="F18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G18" s="6" t="str">
-        <f>HYPERLINK("\\FALCON\퍼블리싱fb/16.FAQ 리스트.html","16.FAQ 리스트.html")</f>
-        <v>16.FAQ 리스트.html</v>
+        <f>HYPERLINK("16.공지사항 상세정보.html","16.공지사항 상세정보.html")</f>
+        <v>16.공지사항 상세정보.html</v>
       </c>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="4">
         <v>17</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E19" s="5"/>
       <c r="F19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G19" s="6" t="str">
-        <f>HYPERLINK("\\FALCON\퍼블리싱fb/17.Q&amp;A 리스트.html","17.Q&amp;A 리스트.html")</f>
-        <v>17.Q&amp;A 리스트.html</v>
+        <f>HYPERLINK("17.FAQ 리스트.html","17.FAQ 리스트.html")</f>
+        <v>17.FAQ 리스트.html</v>
       </c>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="4">
         <v>18</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="E20" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G20" s="6" t="str">
-        <f>HYPERLINK("\\FALCON\퍼블리싱fb/18.Q&amp;A 등록.html","18.Q&amp;A 등록.html")</f>
-        <v>18.Q&amp;A 등록.html</v>
+        <f>HYPERLINK("18.Q&amp;A 리스트.html","18.Q&amp;A 리스트.html")</f>
+        <v>18.Q&amp;A 리스트.html</v>
       </c>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="4">
         <v>19</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G21" s="6" t="str">
-        <f>HYPERLINK("\\FALCON\퍼블리싱fb/19.Q&amp;A 상세정보.html","19.Q&amp;A 상세정보.html")</f>
-        <v>19.Q&amp;A 상세정보.html</v>
+        <f>HYPERLINK("19.Q&amp;A 등록.html","19.Q&amp;A 등록.html")</f>
+        <v>19.Q&amp;A 등록.html</v>
       </c>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="4">
         <v>20</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G22" s="6" t="str">
-        <f>HYPERLINK("\\FALCON\퍼블리싱fb/20.Q&amp;A 수정.html","20.Q&amp;A 수정.html")</f>
-        <v>20.Q&amp;A 수정.html</v>
+        <f>HYPERLINK("20.Q&amp;A 상세정보.html","20.Q&amp;A 상세정보.html")</f>
+        <v>20.Q&amp;A 상세정보.html</v>
       </c>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="4">
         <v>21</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="6" t="str">
+        <f>HYPERLINK("21.Q&amp;A 수정.html","21.Q&amp;A 수정.html")</f>
+        <v>21.Q&amp;A 수정.html</v>
+      </c>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="4">
+        <v>22</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D24" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="6" t="str">
-        <f>HYPERLINK("\\FALCON\퍼블리싱fb/21.기간별 결제_A_일간.html","21.기간별 결제_A_일간.html")</f>
-        <v>21.기간별 결제_A_일간.html</v>
-      </c>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="13"/>
       <c r="E24" s="5"/>
       <c r="F24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G24" s="6" t="str">
-        <f>HYPERLINK("\\FALCON\퍼블리싱fb/21.기간별 결제_B_월간.html","21.기간별 결제_B_월간.html")</f>
-        <v>21.기간별 결제_B_월간.html</v>
+        <f>HYPERLINK("22.기간별 결제_A_일간.html","22.기간별 결제_A_일간.html")</f>
+        <v>22.기간별 결제_A_일간.html</v>
       </c>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="13"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="5"/>
       <c r="F25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G25" s="6" t="str">
-        <f>HYPERLINK("\\FALCON\퍼블리싱fb/21.기간별 결제_C_년간.html","21.기간별 결제_C_년간.html")</f>
-        <v>21.기간별 결제_C_년간.html</v>
+        <f>HYPERLINK("22.기간별 결제_B_월간.html","22.기간별 결제_B_월간.html")</f>
+        <v>22.기간별 결제_B_월간.html</v>
       </c>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="4">
-        <v>22</v>
-      </c>
+    <row r="26" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="D26" s="14"/>
       <c r="E26" s="5"/>
       <c r="F26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G26" s="6" t="str">
-        <f>HYPERLINK("\\FALCON\퍼블리싱fb/22.데이터 통계.html","22.데이터 통계.html")</f>
-        <v>22.데이터 통계.html</v>
+        <f>HYPERLINK("22.기간별 결제_C_년간.html","22.기간별 결제_C_년간.html")</f>
+        <v>22.기간별 결제_C_년간.html</v>
       </c>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="4">
         <v>23</v>
       </c>
       <c r="C27" s="5"/>
-      <c r="D27" s="13" t="s">
-        <v>36</v>
+      <c r="D27" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G27" s="6" t="str">
-        <f>HYPERLINK("\\FALCON\퍼블리싱fb/23.수익 통계_A_월.html","23.수익 통계_A_월.html")</f>
-        <v>23.수익 통계_A_월.html</v>
-      </c>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="4"/>
+        <f>HYPERLINK("23.데이터 통계.html","23.데이터 통계.html")</f>
+        <v>23.데이터 통계.html</v>
+      </c>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="4">
+        <v>24</v>
+      </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="13"/>
+      <c r="D28" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="E28" s="5"/>
       <c r="F28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G28" s="6" t="str">
-        <f>HYPERLINK("\\FALCON\퍼블리싱fb/23.수익 통계_B_분기.html","23.수익 통계_B_분기.html")</f>
-        <v>23.수익 통계_B_분기.html</v>
+        <f>HYPERLINK("24.수익 통계_A_월.html","24.수익 통계_A_월.html")</f>
+        <v>24.수익 통계_A_월.html</v>
       </c>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="13"/>
+      <c r="D29" s="14"/>
       <c r="E29" s="5"/>
       <c r="F29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G29" s="6" t="str">
-        <f>HYPERLINK("\\FALCON\퍼블리싱fb/23.수익 통계_C_반기.html","23.수익 통계_C_반기.html")</f>
-        <v>23.수익 통계_C_반기.html</v>
+        <f>HYPERLINK("24.수익 통계_B_분기.html","24.수익 통계_B_분기.html")</f>
+        <v>24.수익 통계_B_분기.html</v>
       </c>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="13"/>
+      <c r="D30" s="14"/>
       <c r="E30" s="5"/>
       <c r="F30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G30" s="6" t="str">
-        <f>HYPERLINK("\\FALCON\퍼블리싱fb/23.수익 통계_D_년.html","23.수익 통계_D_년.html")</f>
-        <v>23.수익 통계_D_년.html</v>
+        <f>HYPERLINK("24.수익 통계_C_반기.html","24.수익 통계_C_반기.html")</f>
+        <v>24.수익 통계_C_반기.html</v>
       </c>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="4">
-        <v>24</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>38</v>
-      </c>
+    <row r="31" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="5"/>
       <c r="F31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G31" s="6" t="str">
-        <f>HYPERLINK("\\FALCON\퍼블리싱fb/24.정산 신청 관리.html","24.정산 신청 관리.html")</f>
-        <v>24.정산 신청 관리.html</v>
-      </c>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <f>HYPERLINK("24.수익 통계_D_년.html","24.수익 통계_D_년.html")</f>
+        <v>24.수익 통계_D_년.html</v>
+      </c>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="4">
         <v>25</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5" t="s">
-        <v>39</v>
+      <c r="C32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G32" s="6" t="str">
-        <f>HYPERLINK("\\FALCON\퍼블리싱fb/25.정산 신청 상세 내역.html","25.정산 신청 상세 내역.html")</f>
-        <v>25.정산 신청 상세 내역.html</v>
+        <f>HYPERLINK("25.정산 신청 관리.html","25.정산 신청 관리.html")</f>
+        <v>25.정산 신청 관리.html</v>
       </c>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="4">
         <v>26</v>
       </c>
       <c r="C33" s="5"/>
-      <c r="D33" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="D33" s="5"/>
       <c r="E33" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G33" s="6" t="str">
-        <f>HYPERLINK("\\FALCON\퍼블리싱fb/26.정산 내역 관리.html","26.정산 내역 관리.html")</f>
-        <v>26.정산 내역 관리.html</v>
+        <f>HYPERLINK("26.정산 신청 상세 내역.html","26.정산 신청 상세 내역.html")</f>
+        <v>26.정산 신청 상세 내역.html</v>
       </c>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="4">
         <v>27</v>
       </c>
       <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
+      <c r="D34" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="E34" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G34" s="6" t="str">
-        <f>HYPERLINK("\\FALCON\퍼블리싱fb/27.정산 내역 상세보기.html","27.정산 내역 상세보기.html")</f>
-        <v>27.정산 내역 상세보기.html</v>
+        <f>HYPERLINK("27.정산 내역 관리.html","27.정산 내역 관리.html")</f>
+        <v>27.정산 내역 관리.html</v>
       </c>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="4">
         <v>28</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="6" t="str">
+        <f>HYPERLINK("28.정산 내역 상세보기.html","28.정산 내역 상세보기.html")</f>
+        <v>28.정산 내역 상세보기.html</v>
+      </c>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" s="6" t="str">
-        <f>HYPERLINK("\\FALCON\퍼블리싱fb/27.정산 내역 상세보기.html","27.정산 내역 상세보기.html")</f>
-        <v>27.정산 내역 상세보기.html</v>
-      </c>
-      <c r="H35" s="5"/>
-    </row>
-    <row r="36" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="4">
+      <c r="F36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="6" t="str">
+        <f>HYPERLINK("28.정산 내역 상세보기.html","28.정산 내역 상세보기.html")</f>
+        <v>28.정산 내역 상세보기.html</v>
+      </c>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="4">
         <v>29</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5" t="s">
+      <c r="C37" s="5"/>
+      <c r="D37" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" s="6" t="str">
-        <f>HYPERLINK("\\FALCON\퍼블리싱fb/29.세금계산서 설정.html","29.세금계산서 설정.html")</f>
+      <c r="E37" s="5"/>
+      <c r="F37" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="6" t="str">
+        <f>HYPERLINK("29.세금계산서 설정.html","29.세금계산서 설정.html")</f>
         <v>29.세금계산서 설정.html</v>
       </c>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H37" s="5"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="7"/>
@@ -1310,43 +1321,44 @@
       <c r="G39" s="8"/>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B40" s="11"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="2"/>
       <c r="G40" s="8"/>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B41" s="11"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="12"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
       <c r="E41" s="7"/>
       <c r="F41" s="2"/>
       <c r="G41" s="8"/>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B42" s="11"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="12"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
       <c r="E42" s="7"/>
       <c r="F42" s="2"/>
       <c r="G42" s="8"/>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B43" s="2"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="12"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
       <c r="E43" s="7"/>
       <c r="F43" s="2"/>
       <c r="G43" s="8"/>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B44" s="2"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1355,7 +1367,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="7"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B45" s="2"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1364,7 +1376,7 @@
       <c r="G45" s="8"/>
       <c r="H45" s="7"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B46" s="2"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1373,14 +1385,23 @@
       <c r="G46" s="8"/>
       <c r="H46" s="7"/>
     </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="2"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D28:D31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FB 코딩리스트(로컬링크).xlsx
+++ b/FB 코딩리스트(로컬링크).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tomcat8\webapps\ROOT\퍼블리싱FB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Falcon\퍼블리싱fb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664B55BA-96C0-4344-8CB2-B88189779D7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{150270CB-C758-48CF-A2C6-9D8C3898AD73}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
   <si>
     <t>로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,7 +211,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -285,7 +284,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -315,6 +314,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -645,11 +647,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D0DCBC1-8E54-4F6F-8880-6AFD05012F62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -668,11 +670,11 @@
       <c r="B2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="3" t="s">
         <v>23</v>
       </c>
@@ -862,7 +864,9 @@
       <c r="E12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="G12" s="6" t="str">
         <f>HYPERLINK("10.카테고리 리스트.html", "10.카테고리 리스트.html")</f>
         <v>10.카테고리 리스트.html</v>
@@ -880,7 +884,9 @@
       <c r="E13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="G13" s="6" t="str">
         <f>HYPERLINK("11.상품 리스트.html", "11.상품 리스트.html")</f>
         <v>11.상품 리스트.html</v>
@@ -934,7 +940,9 @@
         <v>33</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="4"/>
+      <c r="F16" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="G16" s="6" t="str">
         <f>HYPERLINK("14.실시간 주문 관리.html", "14.실시간 주문 관리.html")</f>
         <v>14.실시간 주문 관리.html</v>
@@ -1080,7 +1088,7 @@
       <c r="C24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="15" t="s">
         <v>34</v>
       </c>
       <c r="E24" s="5"/>
@@ -1096,7 +1104,7 @@
     <row r="25" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="14"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="5"/>
       <c r="F25" s="4" t="s">
         <v>24</v>
@@ -1110,7 +1118,7 @@
     <row r="26" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="14"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="5"/>
       <c r="F26" s="4" t="s">
         <v>24</v>
@@ -1144,7 +1152,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="15" t="s">
         <v>36</v>
       </c>
       <c r="E28" s="5"/>
@@ -1160,7 +1168,7 @@
     <row r="29" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="14"/>
+      <c r="D29" s="15"/>
       <c r="E29" s="5"/>
       <c r="F29" s="4" t="s">
         <v>24</v>
@@ -1174,7 +1182,7 @@
     <row r="30" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="14"/>
+      <c r="D30" s="15"/>
       <c r="E30" s="5"/>
       <c r="F30" s="4" t="s">
         <v>24</v>
@@ -1188,7 +1196,7 @@
     <row r="31" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="14"/>
+      <c r="D31" s="15"/>
       <c r="E31" s="5"/>
       <c r="F31" s="4" t="s">
         <v>24</v>
@@ -1332,27 +1340,27 @@
       <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="12"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
       <c r="E41" s="7"/>
       <c r="F41" s="2"/>
       <c r="G41" s="8"/>
       <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
       <c r="E42" s="7"/>
       <c r="F42" s="2"/>
       <c r="G42" s="8"/>
       <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="12"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
       <c r="E43" s="7"/>
       <c r="F43" s="2"/>
       <c r="G43" s="8"/>
